--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="0" windowWidth="21930" windowHeight="9780"/>
+    <workbookView xWindow="4830" yWindow="0" windowWidth="21930" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
     <t>iPower navigates to Create Bill</t>
   </si>
   <si>
-    <t>Data\Working File_RAS_GHA.xlsx</t>
+    <t>Data\Working File_Grp A_IVM_ZR.xlsx</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
